--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H2">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I2">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J2">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>3.3918009974808</v>
+        <v>47.151634385088</v>
       </c>
       <c r="R2">
-        <v>3.3918009974808</v>
+        <v>424.364709465792</v>
       </c>
       <c r="S2">
-        <v>0.0001986607633445727</v>
+        <v>0.001825615484774658</v>
       </c>
       <c r="T2">
-        <v>0.0001986607633445727</v>
+        <v>0.001825615484774657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H3">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I3">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J3">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>9.864747097399251</v>
+        <v>47.37252923587955</v>
       </c>
       <c r="R3">
-        <v>9.864747097399251</v>
+        <v>426.352763122916</v>
       </c>
       <c r="S3">
-        <v>0.0005777869014208244</v>
+        <v>0.001834168084602238</v>
       </c>
       <c r="T3">
-        <v>0.0005777869014208244</v>
+        <v>0.001834168084602238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H4">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I4">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J4">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>0.4375759233329981</v>
+        <v>2.274818515576555</v>
       </c>
       <c r="R4">
-        <v>0.4375759233329981</v>
+        <v>20.473366640189</v>
       </c>
       <c r="S4">
-        <v>2.562920614007269E-05</v>
+        <v>8.807635114345167E-05</v>
       </c>
       <c r="T4">
-        <v>2.562920614007269E-05</v>
+        <v>8.807635114345165E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1308.15334255235</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H5">
-        <v>1308.15334255235</v>
+        <v>3938.110352</v>
       </c>
       <c r="I5">
-        <v>0.9489107107804025</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J5">
-        <v>0.9489107107804025</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>4012.727971711465</v>
+        <v>11775.01296224563</v>
       </c>
       <c r="R5">
-        <v>4012.727971711465</v>
+        <v>105975.1166602107</v>
       </c>
       <c r="S5">
-        <v>0.2350290015677227</v>
+        <v>0.4559045784443982</v>
       </c>
       <c r="T5">
-        <v>0.2350290015677227</v>
+        <v>0.455904578444398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1308.15334255235</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H6">
-        <v>1308.15334255235</v>
+        <v>3938.110352</v>
       </c>
       <c r="I6">
-        <v>0.9489107107804025</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J6">
-        <v>0.9489107107804025</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>11670.65716443688</v>
+        <v>11830.17626178518</v>
       </c>
       <c r="R6">
-        <v>11670.65716443688</v>
+        <v>106471.5863560666</v>
       </c>
       <c r="S6">
-        <v>0.683560640126547</v>
+        <v>0.4580403893265446</v>
       </c>
       <c r="T6">
-        <v>0.683560640126547</v>
+        <v>0.4580403893265445</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1308.15334255235</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H7">
-        <v>1308.15334255235</v>
+        <v>3938.110352</v>
       </c>
       <c r="I7">
-        <v>0.9489107107804025</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J7">
-        <v>0.9489107107804025</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N7">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q7">
-        <v>517.6816530834021</v>
+        <v>568.0824823357884</v>
       </c>
       <c r="R7">
-        <v>517.6816530834021</v>
+        <v>5112.742341022095</v>
       </c>
       <c r="S7">
-        <v>0.03032106908613263</v>
+        <v>0.0219949995351472</v>
       </c>
       <c r="T7">
-        <v>0.03032106908613263</v>
+        <v>0.02199499953514719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>69.3251579671598</v>
+        <v>84.59089266666666</v>
       </c>
       <c r="H8">
-        <v>69.3251579671598</v>
+        <v>253.772678</v>
       </c>
       <c r="I8">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338979</v>
       </c>
       <c r="J8">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338978</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N8">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O8">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P8">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q8">
-        <v>212.6532046888116</v>
+        <v>758.7843675828479</v>
       </c>
       <c r="R8">
-        <v>212.6532046888116</v>
+        <v>6829.059308245632</v>
       </c>
       <c r="S8">
-        <v>0.01245528496587103</v>
+        <v>0.02937858908030315</v>
       </c>
       <c r="T8">
-        <v>0.01245528496587103</v>
+        <v>0.02937858908030314</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>69.3251579671598</v>
+        <v>84.59089266666666</v>
       </c>
       <c r="H9">
-        <v>69.3251579671598</v>
+        <v>253.772678</v>
       </c>
       <c r="I9">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338979</v>
       </c>
       <c r="J9">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338978</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N9">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q9">
-        <v>618.4826542785631</v>
+        <v>762.339102468415</v>
       </c>
       <c r="R9">
-        <v>618.4826542785631</v>
+        <v>6861.051922215735</v>
       </c>
       <c r="S9">
-        <v>0.03622507225677892</v>
+        <v>0.02951622119286916</v>
       </c>
       <c r="T9">
-        <v>0.03622507225677892</v>
+        <v>0.02951622119286916</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.3251579671598</v>
+        <v>84.59089266666666</v>
       </c>
       <c r="H10">
-        <v>69.3251579671598</v>
+        <v>253.772678</v>
       </c>
       <c r="I10">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338979</v>
       </c>
       <c r="J10">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338978</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N10">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q10">
-        <v>27.43436966394563</v>
+        <v>36.60735733167711</v>
       </c>
       <c r="R10">
-        <v>27.43436966394563</v>
+        <v>329.466215985094</v>
       </c>
       <c r="S10">
-        <v>0.001606855126042069</v>
+        <v>0.00141736250021748</v>
       </c>
       <c r="T10">
-        <v>0.001606855126042069</v>
+        <v>0.00141736250021748</v>
       </c>
     </row>
   </sheetData>
